--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-22\ENSAE_papiers\Cours\S2\2.1 . Applied Macroeconometrics\applied_macroeconometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C0493A-19E7-4901-97BA-FF4EA4CD216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312523A9-C19A-42C1-AD6A-558A8253341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E56F8AAA-08E3-42F7-BDC9-48761EEDA42C}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A25"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>36538</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
